--- a/maia-hdl/projects/pluto/Table2.xlsx
+++ b/maia-hdl/projects/pluto/Table2.xlsx
@@ -12,78 +12,171 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Path 189</t>
-  </si>
-  <si>
-    <t>Slack</t>
-  </si>
-  <si>
-    <t>-1.210ns</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>i_system_wrapper/system_i/maia_sdr/inst/control_registers/control/field_sdr_reset_reg/C   (rising edge-triggered cell FDSE clocked by clk_fpga_0  {rise@0.000ns fall@5.000ns period=10.000ns})</t>
-  </si>
-  <si>
-    <t>Destination</t>
-  </si>
-  <si>
-    <t>i_system_wrapper/system_i/maia_sdr/inst/txiq_cdc/fifo/fifo18e1/RST   (recovery check against rising-edge clock clk_out1_system_maia_sdr_clk_0  {rise@0.000ns fall@8.000ns period=16.000ns})</t>
-  </si>
-  <si>
-    <t>Path Group</t>
-  </si>
-  <si>
-    <t>**async_default**</t>
-  </si>
-  <si>
-    <t>Path Type</t>
-  </si>
-  <si>
-    <t>Recovery (Max at Slow Process Corner)</t>
-  </si>
-  <si>
-    <t>Requirement</t>
-  </si>
-  <si>
-    <t>2.000ns (clk_out1_system_maia_sdr_clk_0 rise@32.000ns - clk_fpga_0 rise@30.000ns)</t>
-  </si>
-  <si>
-    <t>Data Path Delay</t>
-  </si>
-  <si>
-    <t>3.707ns (logic 0.456ns (12.301%)  route 3.251ns (87.699%))</t>
-  </si>
-  <si>
-    <t>Logic Levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0  </t>
-  </si>
-  <si>
-    <t>Clock Path Skew</t>
-  </si>
-  <si>
-    <t>3.128ns</t>
-  </si>
-  <si>
-    <t>Clock Uncertainty</t>
-  </si>
-  <si>
-    <t>0.263ns</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+  <si>
+    <t>Delay Type</t>
+  </si>
+  <si>
+    <t>Incr (ns)</t>
+  </si>
+  <si>
+    <t>Path (ns)</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cell Pin</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Netlist Resources</t>
+  </si>
+  <si>
+    <t>(clock clk_out1_system_maia_sdr_clk_0 rise edge)</t>
+  </si>
+  <si>
+    <t>(r) 14464.000</t>
+  </si>
+  <si>
+    <t>14464.000</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>PS7</t>
+  </si>
+  <si>
+    <t>(r) 0.000</t>
+  </si>
+  <si>
+    <t>Site: PS7_X0Y0</t>
+  </si>
+  <si>
+    <t>FCLKCLK[0]</t>
+  </si>
+  <si>
+    <t>PS7_i (PS7)</t>
+  </si>
+  <si>
+    <t>i_system_wrapper/system_i/sys_ps7/inst/PS7_i/FCLKCLK[0]</t>
+  </si>
+  <si>
+    <t>net (fo=1, routed)</t>
+  </si>
+  <si>
+    <t>1.207</t>
+  </si>
+  <si>
+    <t>14465.207</t>
+  </si>
+  <si>
+    <t>i_system_wrapper/system_i/sys_ps7/inst/FCLK_CLK_unbuffered[0]</t>
+  </si>
+  <si>
+    <t>BUFG (Prop_bufg_I_O)</t>
+  </si>
+  <si>
+    <t>(r) 0.101</t>
+  </si>
+  <si>
+    <t>14465.308</t>
+  </si>
+  <si>
+    <t>Site: BUFGCTRL_X0Y1</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>buffer_fclk_clk_0.FCLK_CLK_0_BUFG (BUFG)</t>
+  </si>
+  <si>
+    <t>i_system_wrapper/system_i/sys_ps7/inst/buffer_fclk_clk_0.FCLK_CLK_0_BUFG/O</t>
+  </si>
+  <si>
+    <t>net (fo=2462, routed)</t>
+  </si>
+  <si>
+    <t>1.677</t>
+  </si>
+  <si>
+    <t>14466.985</t>
+  </si>
+  <si>
+    <t>i_system_wrapper/system_i/maia_sdr_clk/inst/clk_in1</t>
+  </si>
+  <si>
+    <t>MMCME2_ADV (Prop_mmcme2_adv_CLKIN1_CLKOUT0)</t>
+  </si>
+  <si>
+    <t>(r) 0.088</t>
+  </si>
+  <si>
+    <t>14467.073</t>
+  </si>
+  <si>
+    <t>Site: MMCME2_ADV_X0Y0</t>
+  </si>
+  <si>
+    <t>CLKOUT0</t>
+  </si>
+  <si>
+    <t>mmcm_adv_inst (MMCME2_ADV)</t>
+  </si>
+  <si>
+    <t>i_system_wrapper/system_i/maia_sdr_clk/inst/mmcm_adv_inst/CLKOUT0</t>
+  </si>
+  <si>
+    <t>1.760</t>
+  </si>
+  <si>
+    <t>14468.833</t>
+  </si>
+  <si>
+    <t>i_system_wrapper/system_i/maia_sdr_clk/inst/clk_out1_system_maia_sdr_clk_0</t>
+  </si>
+  <si>
+    <t>14468.934</t>
+  </si>
+  <si>
+    <t>Site: BUFGCTRL_X0Y0</t>
+  </si>
+  <si>
+    <t>clkout1_buf (BUFG)</t>
+  </si>
+  <si>
+    <t>i_system_wrapper/system_i/maia_sdr_clk/inst/clkout1_buf/O</t>
+  </si>
+  <si>
+    <t>net (fo=3263, routed)</t>
+  </si>
+  <si>
+    <t>1.675</t>
+  </si>
+  <si>
+    <t>14470.609</t>
+  </si>
+  <si>
+    <t>i_system_wrapper/system_i/maia_sdr/inst/txiq_cdc/sync_reset_w/clk</t>
+  </si>
+  <si>
+    <t>FDRE</t>
+  </si>
+  <si>
+    <t>Site: SLICE_X35Y48</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>stage1_reg (FDRE)</t>
+  </si>
+  <si>
+    <t>i_system_wrapper/system_i/maia_sdr/inst/txiq_cdc/sync_reset_w/stage1_reg/C</t>
   </si>
 </sst>
 </file>
@@ -145,14 +238,19 @@
   <sheetPr>
     <outlinePr summaryBelow="false"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.0625" customWidth="true"/>
-    <col min="2" max="2" width="195.0" customWidth="true"/>
+    <col min="1" max="1" width="51.5625" customWidth="true"/>
+    <col min="2" max="2" width="16.71875" customWidth="true"/>
+    <col min="3" max="3" width="13.75" customWidth="true"/>
+    <col min="4" max="4" width="23.90625" customWidth="true"/>
+    <col min="5" max="5" width="16.40625" customWidth="true"/>
+    <col min="6" max="6" width="46.5625" customWidth="true"/>
+    <col min="7" max="7" width="81.25" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -162,93 +260,250 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>13</v>
+        <v>33</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>19</v>
+        <v>47</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
